--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,102 +665,109 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -768,8 +775,14 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +892,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F12" s="3">
         <v>24900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>18500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>15900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>15300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>15600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>12700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>11400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11900</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1096,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F17" s="3">
         <v>29500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>23400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>20300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>19100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>18700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>13400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>14700</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-22200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-19000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-18000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-18600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-13400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,40 +1209,42 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1185,49 +1252,61 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-26400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-20100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-17000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-16300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-17600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-12500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,49 +1346,61 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-27500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-17300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-18600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-27500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-21200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-17300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-18600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-14600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-27500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-21200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-17300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-18600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-14600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,40 +1769,46 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1677,49 +1816,61 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-27500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-21200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-17300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-18600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-27500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-21200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-17300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-18600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F41" s="3">
         <v>116900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>107700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>34600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>52200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>65900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>37500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,35 +2094,41 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>70400</v>
+      </c>
+      <c r="F42" s="3">
         <v>32500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>73500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>97600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>100900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>11500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>26900</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1962,31 +2141,37 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2003,8 +2188,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2235,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5300</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="F45" s="3">
-        <v>2800</v>
+        <v>5100</v>
       </c>
       <c r="G45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>6700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>112300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>131300</v>
+      </c>
+      <c r="F46" s="3">
         <v>154800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>184700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>135000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>157600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>84200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>66900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,23 +2329,29 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>2000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2167,35 +2376,41 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F48" s="3">
         <v>49200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>40300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>37700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>29500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>27000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>27500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2340,28 +2579,28 @@
         <v>2700</v>
       </c>
       <c r="E52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>184400</v>
+      </c>
+      <c r="F54" s="3">
         <v>208700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>228200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>175500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>189600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>113200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>96000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2747,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F57" s="3">
         <v>6700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,8 +2790,14 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2570,35 +2837,41 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F59" s="3">
         <v>16200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>12800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>10500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2884,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F60" s="3">
         <v>22900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2931,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2667,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>10500</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -2693,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>30500</v>
+      </c>
+      <c r="F62" s="3">
         <v>29400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>27700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>29200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>14800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>16300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1600</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F66" s="3">
         <v>52300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>43300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>40400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>40500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3015,17 +3350,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>177900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>165900</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3420,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-247200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-193300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-165700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-144600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-126400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-109100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-90500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>134300</v>
+      </c>
+      <c r="F76" s="3">
         <v>156400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>182400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>132200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>149100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-105200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-87200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-27500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-21200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-17300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-18600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,19 +3824,21 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>1100</v>
@@ -3450,28 +3847,34 @@
         <v>1000</v>
       </c>
       <c r="I83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-25000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-18400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-19100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-13000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-12000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-15100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-13000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +4172,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2600</v>
       </c>
       <c r="G91" s="3">
         <v>-2300</v>
       </c>
       <c r="H91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4309,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="F94" s="3">
         <v>34000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>21800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-91500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>15000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>11600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>5800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>7800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>6900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>69800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>90700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>11500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>8200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>92600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="F102" s="3">
         <v>9200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>73200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-17600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-13800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>28400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>92800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E12" s="3">
         <v>22500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>11400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11900</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,91 +1124,95 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E17" s="3">
         <v>27900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14700</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-13400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,43 +1244,44 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>1000</v>
       </c>
       <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1258,44 +1292,47 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-17000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-12500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,43 +1842,46 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
       </c>
       <c r="H32" s="3">
         <v>-1000</v>
       </c>
       <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E41" s="3">
         <v>54900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>116900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>107700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>65900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,38 +2187,41 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E42" s="3">
         <v>54000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>70400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>32500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>73500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>97600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>100900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>11500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>26900</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2147,34 +2237,37 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>2600</v>
       </c>
       <c r="H45" s="3">
         <v>2600</v>
       </c>
       <c r="I45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>6700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94500</v>
+      </c>
+      <c r="E46" s="3">
         <v>112300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>131300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>154800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>184700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>157600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>84200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>66900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2346,15 +2451,15 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,38 +2487,41 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E48" s="3">
         <v>48000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>50300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>49200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>40300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>37700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>27000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2579,31 +2699,31 @@
         <v>2700</v>
       </c>
       <c r="E52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2700</v>
       </c>
       <c r="G52" s="3">
         <v>2700</v>
       </c>
       <c r="H52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E54" s="3">
         <v>163000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>184400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>208700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>228200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>175500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>189600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>113200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>96000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E59" s="3">
         <v>13400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E60" s="3">
         <v>18400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2958,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>10500</v>
@@ -2967,7 +3110,7 @@
         <v>10500</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2984,38 +3127,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E62" s="3">
         <v>29200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E66" s="3">
         <v>47600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>43300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3356,14 +3524,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>177900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>165900</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-273100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-247200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-221000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-193300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-165700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-144600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-126400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-109100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-90500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E76" s="3">
         <v>115400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>134300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>182400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>149100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-105200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-87200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1000</v>
       </c>
       <c r="K83" s="3">
         <v>1000</v>
       </c>
       <c r="L83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-15100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E94" s="3">
         <v>14800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>34000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>21800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,46 +4812,49 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E100" s="3">
         <v>5700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>69800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>90700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>92600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-59500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>73200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-17600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>92800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -788,8 +792,11 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E12" s="3">
         <v>21300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11900</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,97 +1151,101 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E17" s="3">
         <v>26500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>14700</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-13400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,46 +1278,47 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
       </c>
       <c r="I20" s="3">
         <v>1000</v>
       </c>
       <c r="J20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1295,47 +1329,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-17000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-12500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,46 +1912,49 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1000</v>
       </c>
       <c r="I32" s="3">
         <v>-1000</v>
       </c>
       <c r="J32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E41" s="3">
         <v>62600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>54900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>116900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>65900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>37500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,41 +2277,44 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E42" s="3">
         <v>29300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>54000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>70400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>32500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>73500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>97600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>100900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>26900</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,37 +2330,40 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2600</v>
       </c>
       <c r="I45" s="3">
         <v>2600</v>
       </c>
       <c r="J45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E46" s="3">
         <v>94500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>112300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>131300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>154800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>184700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>135000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>157600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>84200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>66900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2454,15 +2559,15 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E48" s="3">
         <v>48500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>50300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>29500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2702,31 +2822,31 @@
         <v>2700</v>
       </c>
       <c r="F52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G52" s="3">
         <v>2800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2700</v>
       </c>
       <c r="H52" s="3">
         <v>2700</v>
       </c>
       <c r="I52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J52" s="3">
         <v>2800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E54" s="3">
         <v>145700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>163000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>184400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>208700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>228200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>175500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>189600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>96000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E59" s="3">
         <v>14900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E60" s="3">
         <v>19200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3104,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>10500</v>
@@ -3113,7 +3256,7 @@
         <v>10500</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E62" s="3">
         <v>30300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>29200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1600</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E66" s="3">
         <v>49400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>43300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>40400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,14 +3695,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>177900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>165900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-299100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-273100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-247200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-221000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-193300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-165700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-144600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-126400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-109100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-90500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E76" s="3">
         <v>96200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>134300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>182400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>149100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-105200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-87200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,49 +4233,52 @@
         <v>1700</v>
       </c>
       <c r="E83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>1000</v>
       </c>
       <c r="L83" s="3">
         <v>1000</v>
       </c>
       <c r="M83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-15100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>23800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>34000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>21800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,49 +5058,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>69800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>90700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>92600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-59500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>73200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>92800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,129 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
@@ -795,8 +798,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E12" s="3">
         <v>22100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>18500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11900</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,103 +1177,107 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E17" s="3">
         <v>27100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>26500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>23400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>14700</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-22200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-19000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
         <v>-13400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,49 +1311,50 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
       </c>
       <c r="J20" s="3">
         <v>1000</v>
       </c>
       <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1332,50 +1365,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-17000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-12500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1477,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-15500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,49 +1981,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
       </c>
       <c r="J32" s="3">
         <v>-1000</v>
       </c>
       <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1968,61 +2037,67 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E41" s="3">
         <v>57600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>62600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>54900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>116900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>107700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>52200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>65900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,44 +2366,47 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>12900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>29300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>54000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>70400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>32500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>73500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>97600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>26900</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,40 +2422,43 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2386,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2534,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2600</v>
       </c>
       <c r="J45" s="3">
         <v>2600</v>
       </c>
       <c r="K45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L45" s="3">
         <v>4500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,44 +2590,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E46" s="3">
         <v>73700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>94500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>112300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>131300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>154800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>184700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>135000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>157600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>84200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>66900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2562,15 +2666,15 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2598,44 +2702,47 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E48" s="3">
         <v>46000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>48500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>48000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>50300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>40300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2825,31 +2944,31 @@
         <v>2700</v>
       </c>
       <c r="G52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H52" s="3">
         <v>2800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2700</v>
       </c>
       <c r="I52" s="3">
         <v>2700</v>
       </c>
       <c r="J52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>221600</v>
+      </c>
+      <c r="E54" s="3">
         <v>122500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>145700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>163000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>184400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>208700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>228200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>175500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>189600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>96000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3140,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,44 +3250,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
         <v>18700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,44 +3306,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E60" s="3">
         <v>22000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,8 +3362,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3250,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>10500</v>
@@ -3259,7 +3401,7 @@
         <v>10500</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3276,44 +3418,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E62" s="3">
         <v>28500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>29200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1600</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E66" s="3">
         <v>50500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>49400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>52300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,14 +3865,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>177900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>165900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-326300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-299100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-273100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-247200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-221000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-193300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-165700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-144600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-126400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-109100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-90500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E76" s="3">
         <v>72000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>96200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>134300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>182400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>132200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>149100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-105200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-87200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,49 +4434,52 @@
         <v>1700</v>
       </c>
       <c r="F83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>1000</v>
       </c>
       <c r="M83" s="3">
         <v>1000</v>
       </c>
       <c r="N83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O83" s="3">
         <v>900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-18400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-15100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E94" s="3">
         <v>15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>23800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-41300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>34000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>21800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-91500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>7800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6900</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,52 +5303,55 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>125400</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>69800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>90700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>92600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
@@ -5114,8 +5359,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-59500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>73200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>92800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
@@ -801,8 +805,11 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E12" s="3">
         <v>22800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>18500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11900</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,109 +1204,113 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E17" s="3">
         <v>28500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>26500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>19100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>18700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14700</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-22200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-13400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1290,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,43 +1355,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
       </c>
       <c r="K20" s="3">
         <v>1000</v>
       </c>
       <c r="L20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1368,53 +1402,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-25500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-24400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-12500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-17300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-14600</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-27200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-18000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-14600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-27200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,43 +2063,43 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1000</v>
       </c>
       <c r="K32" s="3">
         <v>-1000</v>
       </c>
       <c r="L32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -2040,64 +2110,70 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-27200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-27200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E41" s="3">
         <v>170100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>62600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>54900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>107700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>65900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37500</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,47 +2456,50 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>29300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>54000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>70400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>32500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>73500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>97600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>26900</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2425,43 +2515,46 @@
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2546,38 +2645,38 @@
         <v>4300</v>
       </c>
       <c r="E45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2600</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
       </c>
       <c r="L45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M45" s="3">
         <v>4500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2400</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>202500</v>
+      </c>
+      <c r="E46" s="3">
         <v>175400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>73700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>94500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>112300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>131300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>154800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>184700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>135000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>157600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>84200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>66900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2669,15 +2774,15 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,47 +2810,50 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E48" s="3">
         <v>43400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>46000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>48500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>48000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>50300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>40300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2947,31 +3067,31 @@
         <v>2700</v>
       </c>
       <c r="H52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I52" s="3">
         <v>2800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>2700</v>
       </c>
       <c r="K52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1500</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>246900</v>
+      </c>
+      <c r="E54" s="3">
         <v>221600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>145700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>163000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>184400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>208700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>228200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>175500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>189600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>96000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,47 +3271,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
         <v>9600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2700</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,47 +3387,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,47 +3446,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E60" s="3">
         <v>27000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5200</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3395,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>10500</v>
@@ -3404,7 +3547,7 @@
         <v>10500</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3421,47 +3564,50 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E62" s="3">
         <v>27800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>28500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>30300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>29200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1600</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3800,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E66" s="3">
         <v>54800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>49400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>52300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3868,14 +4036,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>177900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>165900</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-318400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-326300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-299100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-273100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-247200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-221000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-193300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-165700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-144600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-126400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-109100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-90500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>199400</v>
+      </c>
+      <c r="E76" s="3">
         <v>166700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>72000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>96200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>134300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>156400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>182400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>149100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-105200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-87200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-27200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
         <v>1700</v>
@@ -4437,49 +4636,52 @@
         <v>1700</v>
       </c>
       <c r="G83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>1000</v>
       </c>
       <c r="N83" s="3">
         <v>1000</v>
       </c>
       <c r="O83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P83" s="3">
         <v>900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>800</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-18400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E94" s="3">
         <v>11600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>23800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>34000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>21800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-91500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>7800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6900</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,55 +5549,58 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E100" s="3">
         <v>125400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>69800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>90700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>92600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-61600</v>
+      </c>
+      <c r="E102" s="3">
         <v>111800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-59500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>73200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>92800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>39700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
@@ -808,8 +812,11 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E12" s="3">
         <v>24900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>18500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11900</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,115 +1231,119 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E17" s="3">
         <v>31800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>27100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>29200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>19100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14700</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E18" s="3">
         <v>7900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-22200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,55 +1379,56 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1000</v>
       </c>
       <c r="L20" s="3">
         <v>1000</v>
       </c>
       <c r="M20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1405,56 +1439,59 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E21" s="3">
         <v>9500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-25500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-24400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-20100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-17000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-16300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E23" s="3">
         <v>7900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-26100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-17300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-15500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-14600</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E26" s="3">
         <v>7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-27200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-26100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-18000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-14600</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E27" s="3">
         <v>7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-27200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-26100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-18000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-14600</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,55 +2121,58 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1000</v>
       </c>
       <c r="L32" s="3">
         <v>-1000</v>
       </c>
       <c r="M32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2113,67 +2183,73 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E33" s="3">
         <v>7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-27200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-26100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-18000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14600</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E35" s="3">
         <v>7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-27200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-26100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-18000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14600</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E41" s="3">
         <v>108500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>170100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>54900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>116900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>107700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>65900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37500</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,50 +2546,53 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E42" s="3">
         <v>89500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>29300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>54000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>70400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>32500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>73500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>26900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2518,46 +2608,49 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="E45" s="3">
         <v>4300</v>
       </c>
       <c r="F45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G45" s="3">
         <v>3100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5100</v>
-      </c>
-      <c r="K45" s="3">
-        <v>2600</v>
       </c>
       <c r="L45" s="3">
         <v>2600</v>
       </c>
       <c r="M45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N45" s="3">
         <v>4500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E46" s="3">
         <v>202500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>175400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>94500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>112300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>131300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>154800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>184700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>135000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>157600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>84200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>66900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,13 +2856,16 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>4000</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -2777,15 +2882,15 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,50 +2918,53 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E48" s="3">
         <v>41700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>48500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>48000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>49200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>37700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E52" s="3">
         <v>2700</v>
@@ -3070,31 +3190,31 @@
         <v>2700</v>
       </c>
       <c r="I52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J52" s="3">
         <v>2800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2700</v>
       </c>
       <c r="K52" s="3">
         <v>2700</v>
       </c>
       <c r="L52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1500</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>224200</v>
+      </c>
+      <c r="E54" s="3">
         <v>246900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>221600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>145700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>184400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>208700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>228200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>175500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>189600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>113200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>96000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>6400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2700</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E59" s="3">
         <v>15400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E60" s="3">
         <v>21800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5200</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3541,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>10500</v>
@@ -3550,7 +3693,7 @@
         <v>10500</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3567,50 +3710,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E62" s="3">
         <v>25800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>28500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>29200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1600</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E66" s="3">
         <v>47600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>49400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>52300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>43300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4039,14 +4207,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>177900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>165900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-318400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-326300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-299100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-273100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-247200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-221000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-193300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-165700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-144600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-126400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-109100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-90500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E76" s="3">
         <v>199400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>166700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>134300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>182400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>149100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-105200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-87200</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E81" s="3">
         <v>7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-27200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-26100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-18000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14600</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,7 +4829,7 @@
         <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1700</v>
@@ -4639,49 +4838,52 @@
         <v>1700</v>
       </c>
       <c r="H83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>1000</v>
       </c>
       <c r="O83" s="3">
         <v>1000</v>
       </c>
       <c r="P83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E89" s="3">
         <v>10700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-89600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>11600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>23800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>34000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>21800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-91500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>15000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>11600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>6900</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,58 +5795,61 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>17400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>125400</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>69800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>90700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>11500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>92600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-61600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>111800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-59500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>73200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-17600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>92800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>39700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E12" s="3">
         <v>22100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>18500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11900</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,121 +1258,125 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E17" s="3">
         <v>28000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>31800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>27100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>29200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>23400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14700</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-25200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-19000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3">
         <v>-13400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,49 +1423,49 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
       </c>
       <c r="M20" s="3">
         <v>1000</v>
       </c>
       <c r="N20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1442,59 +1476,62 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-25500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-24400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-20100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-17000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17600</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-12500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-9000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-27200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-14600</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-27200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-18000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-14600</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-27200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-18000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-14600</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,49 +2203,49 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1000</v>
       </c>
       <c r="M32" s="3">
         <v>-1000</v>
       </c>
       <c r="N32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-27200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-18000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-14600</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-27200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-18000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-14600</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E41" s="3">
         <v>64100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>108500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>170100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>57600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>54900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>107700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>65900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37500</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,53 +2636,56 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E42" s="3">
         <v>107100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>89500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>12900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>29300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>54000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>70400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>32500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>73500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>100900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>26900</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,49 +2701,52 @@
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E45" s="3">
         <v>5300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>4300</v>
       </c>
       <c r="F45" s="3">
         <v>4300</v>
       </c>
       <c r="G45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H45" s="3">
         <v>3100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5100</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2600</v>
       </c>
       <c r="M45" s="3">
         <v>2600</v>
       </c>
       <c r="N45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O45" s="3">
         <v>4500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E46" s="3">
         <v>176800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>202500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>175400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>73700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>94500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>112300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>131300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>154800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>184700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>157600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>84200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>66900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,17 +2961,20 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2885,15 +2990,15 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>500</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E48" s="3">
         <v>40500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>41700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>48500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>48000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>49200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>37700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>27000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,16 +3286,19 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>3000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2700</v>
       </c>
       <c r="F52" s="3">
         <v>2700</v>
@@ -3193,31 +3313,31 @@
         <v>2700</v>
       </c>
       <c r="J52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2700</v>
       </c>
       <c r="L52" s="3">
         <v>2700</v>
       </c>
       <c r="M52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N52" s="3">
         <v>2800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1500</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>271300</v>
+      </c>
+      <c r="E54" s="3">
         <v>224200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>246900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>221600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>145700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>163000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>184400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>208700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>228200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>175500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>189600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>96000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2700</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E59" s="3">
         <v>16600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E60" s="3">
         <v>21400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5200</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3687,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>10500</v>
@@ -3696,7 +3839,7 @@
         <v>10500</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -3713,53 +3856,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E62" s="3">
         <v>24000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>25800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>28500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>29200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1600</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E66" s="3">
         <v>45400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>47600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>49400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>43300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4210,14 +4378,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>177900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>165900</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-371600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-343500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-318400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-326300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-299100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-273100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-247200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-221000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-193300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-165700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-144600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-126400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-109100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-90500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E76" s="3">
         <v>178800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>199400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>134300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>156400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>182400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>132200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>149100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-105200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-87200</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-27200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-18000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-14600</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5031,7 @@
         <v>1600</v>
       </c>
       <c r="F83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1700</v>
@@ -4841,49 +5040,52 @@
         <v>1700</v>
       </c>
       <c r="I83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>1000</v>
       </c>
       <c r="P83" s="3">
         <v>1000</v>
       </c>
       <c r="Q83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R83" s="3">
         <v>900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-89600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>11600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>15700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>23800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>14800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-41300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>34000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>21800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-91500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>11600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6900</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,61 +6041,64 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>125400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>69800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>90700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>11500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>92600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-44400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>111800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-59500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>73200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-17600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>28400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>92800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,156 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>39700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
@@ -822,8 +825,11 @@
       <c r="W8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E12" s="3">
         <v>24400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>18500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11900</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,127 +1284,131 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E17" s="3">
         <v>30800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>31800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>27100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>26500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>23400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>19100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14700</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-28200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-25200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-13400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1389,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,61 +1446,62 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1000</v>
       </c>
       <c r="N20" s="3">
         <v>1000</v>
       </c>
       <c r="O20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1479,62 +1512,65 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-25500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-24400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-12500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-9000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1544,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1648,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>7900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-14600</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-25100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-27200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-18000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-14600</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-25100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-27200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-18000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-14600</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,61 +2260,64 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1000</v>
       </c>
       <c r="N32" s="3">
         <v>-1000</v>
       </c>
       <c r="O32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2259,73 +2328,79 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-25100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-27200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-18000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-14600</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-25100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-27200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-18000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-14600</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2659,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E41" s="3">
         <v>131400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>108500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>170100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>57600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>54900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>107700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>34600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>65900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37500</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,56 +2725,59 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E42" s="3">
         <v>68300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>107100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>89500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>12900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>29300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>54000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>70400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>32500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>73500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>97600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>100900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>11500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>26900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,52 +2793,55 @@
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="G43" s="3">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2769,8 +2861,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2929,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,47 +2941,47 @@
         <v>17600</v>
       </c>
       <c r="E45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F45" s="3">
         <v>5300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4300</v>
       </c>
       <c r="G45" s="3">
         <v>4300</v>
       </c>
       <c r="H45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I45" s="3">
         <v>3100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>2600</v>
       </c>
       <c r="N45" s="3">
         <v>2600</v>
       </c>
       <c r="O45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P45" s="3">
         <v>4500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2400</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,56 +2997,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>220600</v>
+      </c>
+      <c r="E46" s="3">
         <v>218400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>176800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>202500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>175400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>73700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>94500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>112300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>131300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>154800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>184700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>135000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>157600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>84200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>66900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,20 +3065,23 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2993,15 +3097,15 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>500</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,56 +3133,59 @@
       <c r="W47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E48" s="3">
         <v>45100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>40500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>41700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>48500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>40300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>37700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>27000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3201,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,19 +3405,22 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2700</v>
       </c>
       <c r="G52" s="3">
         <v>2700</v>
@@ -3316,31 +3435,31 @@
         <v>2700</v>
       </c>
       <c r="K52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L52" s="3">
         <v>2800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2700</v>
       </c>
       <c r="M52" s="3">
         <v>2700</v>
       </c>
       <c r="N52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1500</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3354,8 +3473,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3541,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E54" s="3">
         <v>271300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>224200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>246900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>221600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>122500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>145700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>163000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>184400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>208700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>228200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>175500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>189600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>96000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,56 +3663,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2700</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,56 +3797,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E59" s="3">
         <v>32900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>14900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,56 +3865,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E60" s="3">
         <v>36300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>22000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>19200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5200</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,8 +3933,11 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3833,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>10500</v>
@@ -3842,7 +3984,7 @@
         <v>10500</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3859,56 +4001,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E62" s="3">
         <v>27000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>25800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>28500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>29200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1600</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3924,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4273,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E66" s="3">
         <v>63300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>45400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>47600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>49400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>45800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>43300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4381,14 +4548,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>177900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>165900</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4639,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-401400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-371600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-343500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-318400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-326300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-299100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-273100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-247200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-221000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-193300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-165700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-144600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-126400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-109100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-90500</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4911,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E76" s="3">
         <v>208000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>178800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>199400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>166700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>72000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>96200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>115400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>134300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>156400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>182400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>132200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>149100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-105200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-87200</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-25100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-27200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-18000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-14600</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,7 +5232,7 @@
         <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1700</v>
@@ -5043,49 +5241,52 @@
         <v>1700</v>
       </c>
       <c r="J83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>1000</v>
       </c>
       <c r="Q83" s="3">
         <v>1000</v>
       </c>
       <c r="R83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S83" s="3">
         <v>900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>800</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-19100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13000</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="E94" s="3">
         <v>41200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-89600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>11600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>23800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>14800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>34000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>21800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-91500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>7800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6900</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,64 +6286,67 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E100" s="3">
         <v>56700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>125400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>69800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>90700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>11500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>92600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
+      <c r="U100" s="3">
+        <v>0</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
@@ -6109,8 +6354,11 @@
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="E102" s="3">
         <v>83000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-44400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-61600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>111800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>7800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>73200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>28400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>92800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,163 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>39700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
+      <c r="U8" s="3">
+        <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
@@ -828,8 +832,11 @@
       <c r="X8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E12" s="3">
         <v>26200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>18500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11900</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,133 +1311,137 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E17" s="3">
         <v>32800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>31800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>27100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>26500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>23400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>19100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>18700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14700</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-28200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-25200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-27200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-26200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-28300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-22200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-19000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18600</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-13400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1421,8 +1451,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1456,55 +1490,55 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
       </c>
       <c r="O20" s="3">
         <v>1000</v>
       </c>
       <c r="P20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1515,65 +1549,68 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-25500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-24400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-17600</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-12500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-9000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-25100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-26100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-13400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-14600</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-25100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-27200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-26100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-18000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-9500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-14600</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-25100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-27200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-26100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-14600</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2272,55 +2342,55 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
       </c>
       <c r="O32" s="3">
         <v>-1000</v>
       </c>
       <c r="P32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2331,76 +2401,82 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-25100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-27200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-26100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-14600</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-25100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-27200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-26100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-14600</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,59 +2746,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E41" s="3">
         <v>93300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>108500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>170100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>57600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>116900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>107700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>65900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37500</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,59 +2815,62 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E42" s="3">
         <v>108300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>68300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>107100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>89500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>12900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>29300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>54000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>70400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>73500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>97600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>100900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>11500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>26900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,55 +2886,58 @@
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,59 +3028,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17600</v>
+        <v>20100</v>
       </c>
       <c r="E45" s="3">
         <v>17600</v>
       </c>
       <c r="F45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="G45" s="3">
         <v>5300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4300</v>
       </c>
       <c r="H45" s="3">
         <v>4300</v>
       </c>
       <c r="I45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J45" s="3">
         <v>3100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>2600</v>
       </c>
       <c r="O45" s="3">
         <v>2600</v>
       </c>
       <c r="P45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>4500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2400</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,59 +3099,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>192500</v>
+      </c>
+      <c r="E46" s="3">
         <v>220600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>218400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>176800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>202500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>175400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>73700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>94500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>112300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>131300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>154800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>184700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>135000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>157600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>84200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>66900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,23 +3170,26 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>4600</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3100,15 +3205,15 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>500</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3136,59 +3241,62 @@
       <c r="X47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E48" s="3">
         <v>44500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>45100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>40500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>41700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>46000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>48500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>40300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>37700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,22 +3525,25 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2700</v>
       </c>
       <c r="H52" s="3">
         <v>2700</v>
@@ -3438,31 +3558,31 @@
         <v>2700</v>
       </c>
       <c r="L52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M52" s="3">
         <v>2800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2700</v>
       </c>
       <c r="N52" s="3">
         <v>2700</v>
       </c>
       <c r="O52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1500</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,59 +3667,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>243500</v>
+      </c>
+      <c r="E54" s="3">
         <v>278100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>224200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>246900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>221600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>122500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>145700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>163000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>184400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>208700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>228200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>175500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>189600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>113200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>96000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,59 +3794,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2700</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,8 +3863,11 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,59 +3934,62 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E59" s="3">
         <v>35700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>14900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>16200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,59 +4005,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E60" s="3">
         <v>40000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>22000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5200</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4076,11 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3978,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>10500</v>
@@ -3987,7 +4130,7 @@
         <v>10500</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4004,59 +4147,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E62" s="3">
         <v>22100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>27000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>25800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>28500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1600</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,59 +4431,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E66" s="3">
         <v>62000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>63300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>45400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>47600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>50500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>49400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>45800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>43300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4551,14 +4719,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>177900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>165900</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,59 +4813,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-430300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-401400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-371600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-343500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-318400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-326300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-299100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-273100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-247200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-221000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-193300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-165700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-144600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-126400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-109100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-90500</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,59 +5097,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>189200</v>
+      </c>
+      <c r="E76" s="3">
         <v>216100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>208000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>178800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>199400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>166700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>96200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>115400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>134300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>156400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>182400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>149100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-105200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-87200</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-25100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-27200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-26100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-14600</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5235,7 +5434,7 @@
         <v>1600</v>
       </c>
       <c r="H83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1700</v>
@@ -5244,49 +5443,52 @@
         <v>1700</v>
       </c>
       <c r="K83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1000</v>
       </c>
       <c r="R83" s="3">
         <v>1000</v>
       </c>
       <c r="S83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T83" s="3">
         <v>900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>800</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-22700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-19100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-12000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-7600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-13000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>41200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-89600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>11600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>23800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>14800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>34000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>21800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-91500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>11600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>7800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>6900</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,67 +6532,70 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>32900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>56700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>17400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>125400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>69800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>90700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>11500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>92600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
+      <c r="V100" s="3">
+        <v>0</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
@@ -6357,8 +6603,11 @@
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-37500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>83000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-44400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-61600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>111800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-59500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>73200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>92800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,170 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>7200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>39700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>3</v>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E12" s="3">
         <v>28200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>22100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>18500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>12700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11900</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,139 +1338,143 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E17" s="3">
         <v>36200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>30800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>28000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>31800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>27100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>29200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>23400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>19100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>18700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>15500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14700</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-28200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-25200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-27200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-26200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-28300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-22200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
         <v>-13400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,67 +1514,68 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1000</v>
       </c>
       <c r="P20" s="3">
         <v>1000</v>
       </c>
       <c r="Q20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1552,68 +1586,71 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-26500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-25500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-24400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-26300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-20100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-16300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-17600</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-12500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-9000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-28900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-25100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-27200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-26100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-17300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-15500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-13400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-14600</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-28900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-26100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-9500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-14600</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-28900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-25100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-26100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-9500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-14600</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,67 +2400,70 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1000</v>
       </c>
       <c r="P32" s="3">
         <v>-1000</v>
       </c>
       <c r="Q32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2404,79 +2474,85 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-28900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-25100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-26100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-9500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-14600</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-28900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-25100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-26100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-9500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-14600</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2833,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E41" s="3">
         <v>69200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>108500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>170100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>57600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>116900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>107700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>65900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>37500</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,62 +2905,65 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E42" s="3">
         <v>103000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>108300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>68300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>107100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>89500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>12900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>54000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>70400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>73500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>97600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>100900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>11500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>26900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,58 +2979,61 @@
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,62 +3127,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
         <v>20100</v>
-      </c>
-      <c r="E45" s="3">
-        <v>17600</v>
       </c>
       <c r="F45" s="3">
         <v>17600</v>
       </c>
       <c r="G45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="H45" s="3">
         <v>5300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>4300</v>
       </c>
       <c r="I45" s="3">
         <v>4300</v>
       </c>
       <c r="J45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K45" s="3">
         <v>3100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>2600</v>
       </c>
       <c r="P45" s="3">
         <v>2600</v>
       </c>
       <c r="Q45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R45" s="3">
         <v>4500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2400</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,62 +3201,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>161700</v>
+      </c>
+      <c r="E46" s="3">
         <v>192500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>220600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>218400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>176800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>202500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>175400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>73700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>94500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>112300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>131300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>154800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>184700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>135000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>157600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>84200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>66900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,17 +3287,17 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>4600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>4000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3208,15 +3313,15 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>500</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3244,62 +3349,65 @@
       <c r="Y47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E48" s="3">
         <v>44100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>45100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>40500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>46000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>48500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>40300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>37700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,25 +3645,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E52" s="3">
         <v>6900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2700</v>
       </c>
       <c r="I52" s="3">
         <v>2700</v>
@@ -3561,31 +3681,31 @@
         <v>2700</v>
       </c>
       <c r="M52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N52" s="3">
         <v>2800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2700</v>
       </c>
       <c r="O52" s="3">
         <v>2700</v>
       </c>
       <c r="P52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1500</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3793,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E54" s="3">
         <v>243500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>224200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>246900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>221600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>122500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>145700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>163000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>184400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>208700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>228200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>175500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>189600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>113200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>96000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +3925,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2700</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,62 +4071,65 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>35700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>14900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>16200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,62 +4145,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E60" s="3">
         <v>34100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>22000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5200</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4124,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>10500</v>
@@ -4133,7 +4276,7 @@
         <v>10500</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4150,62 +4293,65 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E62" s="3">
         <v>20200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>22100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>27000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>24000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>25800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>28500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>27700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1600</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E66" s="3">
         <v>54300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>63300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>47600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>50500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>45800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>43300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4722,14 +4890,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>177900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>165900</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +4987,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-459800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-430300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-401400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-371600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-343500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-318400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-326300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-299100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-273100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-247200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-221000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-193300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-165700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-144600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-126400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-109100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-90500</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5283,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>163400</v>
+      </c>
+      <c r="E76" s="3">
         <v>189200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>216100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>178800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>199400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>166700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>134300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>156400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>182400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>132200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>149100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-105200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-87200</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-28900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-25100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-26100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-9500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-14600</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,13 +5614,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E83" s="3">
         <v>1600</v>
@@ -5437,7 +5636,7 @@
         <v>1600</v>
       </c>
       <c r="I83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1700</v>
@@ -5446,49 +5645,52 @@
         <v>1700</v>
       </c>
       <c r="L83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1000</v>
       </c>
       <c r="S83" s="3">
         <v>1000</v>
       </c>
       <c r="T83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U83" s="3">
         <v>900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-33500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-22700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-25200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-19100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-13000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-12000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-15100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-7600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-13000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3700</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E94" s="3">
         <v>7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>41200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-89600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>11600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>23800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>34000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>21800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-91500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>15000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>6900</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,70 +6778,73 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>56700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>17400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>125400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>69800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>90700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>11500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>92600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
+      <c r="W100" s="3">
+        <v>0</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-26700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>83000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-44400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>111800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-59500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>73200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>92800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,177 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>39700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
+      <c r="W8" s="3">
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>3</v>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E12" s="3">
         <v>27300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>18500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>12700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11900</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,145 +1365,149 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E17" s="3">
         <v>35100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>30800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>28000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>31800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>27100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>29200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>23400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>15500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>14700</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-28200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-25200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-27200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-28300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-22200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-19000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-18000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-18600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
         <v>-13400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,70 +1548,71 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1000</v>
       </c>
       <c r="Q20" s="3">
         <v>1000</v>
       </c>
       <c r="R20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
@@ -1589,71 +1623,74 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-23500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-25500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-24400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-26300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-26400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-17000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-16300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-17600</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>-12500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-9000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,31 +1700,34 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-25100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-27200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-18000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-13400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-14600</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-28900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-18000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-14600</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-28900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-25100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-14600</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,70 +2470,73 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q32" s="3">
         <v>-1000</v>
       </c>
       <c r="R32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-28900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-25100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-14600</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-28900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-25100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-14600</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,65 +2920,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E41" s="3">
         <v>65700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>69200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>93300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>131400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>64100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>108500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>170100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>57600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>116900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>107700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>34600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>65900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>37500</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,65 +2995,68 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E42" s="3">
         <v>78900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>103000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>108300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>68300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>107100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>89500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>29300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>54000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>70400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>32500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>73500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>100900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>11500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>26900</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,61 +3072,64 @@
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,65 +3226,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>17600</v>
       </c>
       <c r="G45" s="3">
         <v>17600</v>
       </c>
       <c r="H45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I45" s="3">
         <v>5300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4300</v>
       </c>
       <c r="J45" s="3">
         <v>4300</v>
       </c>
       <c r="K45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="L45" s="3">
         <v>3100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>2600</v>
       </c>
       <c r="Q45" s="3">
         <v>2600</v>
       </c>
       <c r="R45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S45" s="3">
         <v>4500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2400</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,65 +3303,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>153400</v>
+      </c>
+      <c r="E46" s="3">
         <v>161700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>192500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>220600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>218400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>176800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>202500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>175400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>73700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>94500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>112300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>131300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>154800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>184700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>135000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>157600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>84200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>66900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3290,17 +3395,17 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>4600</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>4000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,15 +3421,15 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3">
         <v>2000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>500</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3352,65 +3457,68 @@
       <c r="Z47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E48" s="3">
         <v>43800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>44100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>45100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>40500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>48500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>40300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>37700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,28 +3765,31 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E52" s="3">
         <v>8400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2700</v>
       </c>
       <c r="J52" s="3">
         <v>2700</v>
@@ -3684,31 +3804,31 @@
         <v>2700</v>
       </c>
       <c r="N52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O52" s="3">
         <v>2800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2700</v>
       </c>
       <c r="P52" s="3">
         <v>2700</v>
       </c>
       <c r="Q52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1500</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,65 +3919,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>205200</v>
+      </c>
+      <c r="E54" s="3">
         <v>214000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>243500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>224200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>246900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>221600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>122500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>145700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>163000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>184400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>208700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>228200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>175500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>189600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>113200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>96000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,65 +4056,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2700</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,8 +4131,11 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,65 +4208,68 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E59" s="3">
         <v>30000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>35700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>32900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>15400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>14900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>16200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4148,65 +4285,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E60" s="3">
         <v>32400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>36300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>22000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5200</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,13 +4362,16 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4270,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>10500</v>
@@ -4279,7 +4422,7 @@
         <v>10500</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4296,65 +4439,68 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E62" s="3">
         <v>18200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>20200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>22100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>27000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>24000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>25800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>27700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1600</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,65 +4747,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E66" s="3">
         <v>50600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>54300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>63300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>47600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>54800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>45800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>43300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4893,14 +5061,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>177900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>165900</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,65 +5161,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-489800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-459800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-430300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-401400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-371600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-343500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-318400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-326300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-299100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-273100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-247200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-221000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-193300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-165700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-144600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-126400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-109100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-90500</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,65 +5469,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136800</v>
+      </c>
+      <c r="E76" s="3">
         <v>163400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>189200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>216100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>178800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>199400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>166700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>134300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>156400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>182400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>132200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>149100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-105200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-87200</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-28900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-25100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-14600</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,16 +5813,17 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E83" s="3">
         <v>1500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1600</v>
       </c>
       <c r="F83" s="3">
         <v>1600</v>
@@ -5639,7 +5838,7 @@
         <v>1600</v>
       </c>
       <c r="J83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K83" s="3">
         <v>1700</v>
@@ -5648,49 +5847,52 @@
         <v>1700</v>
       </c>
       <c r="M83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>1000</v>
       </c>
       <c r="T83" s="3">
         <v>1000</v>
       </c>
       <c r="U83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V83" s="3">
         <v>900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>800</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-26300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-22700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>10700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-25200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-19100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-13000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-15100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-13000</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E94" s="3">
         <v>22500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>41200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-89600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>15700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>23800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>34000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>21800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-91500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>15000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>6900</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,73 +7024,76 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>56700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>17400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>125400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>69800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>90700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>11500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>92600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
+      <c r="X100" s="3">
+        <v>0</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-26700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>83000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-44400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-61600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>111800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-59500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>73200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-17600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>28400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>92800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6200</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,183 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>39700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>100</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>3</v>
@@ -849,8 +852,11 @@
       <c r="AA8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +932,11 @@
       <c r="AA9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1012,11 @@
       <c r="AA10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1044,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E12" s="3">
         <v>26400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>18500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>15900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>12700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11900</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1202,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1282,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1362,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,151 +1391,155 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E17" s="3">
         <v>32900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>30800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>28000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>31800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>27100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>26500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>29200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>23400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>18700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>15500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>14700</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-28200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-25200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-27200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-28300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-22200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-18000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18600</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
         <v>-13400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1520,8 +1549,11 @@
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,73 +1581,74 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1000</v>
       </c>
       <c r="R20" s="3">
         <v>1000</v>
       </c>
       <c r="S20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
@@ -1626,74 +1659,77 @@
       <c r="AA20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-27700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-23500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-25500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-24400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-26300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-26400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-20100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-17000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-16300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-17600</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
         <v>-12500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-9000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,17 +1739,20 @@
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1729,8 +1768,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1780,85 +1819,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-25100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-25900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-27700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-18000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1979,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2059,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-27700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-21200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-18000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-13400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-25100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-25900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-27700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-21200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2299,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2379,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2459,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,73 +2539,76 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1000</v>
       </c>
       <c r="R32" s="3">
         <v>-1000</v>
       </c>
       <c r="S32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
@@ -2550,85 +2619,91 @@
       <c r="AA32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-25100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-25900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-27700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-21200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2779,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-25100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-25900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-27700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-21200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2976,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,68 +3006,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E41" s="3">
         <v>64900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>65700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>69200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>93300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>131400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>108500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>170100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>54900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>116900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>107700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>34600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>52200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>65900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37500</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2998,68 +3084,71 @@
       <c r="AA41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E42" s="3">
         <v>74900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>78900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>103000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>108300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>68300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>107100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>89500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>29300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>54000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>70400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>32500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>73500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>97600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>100900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>11500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>26900</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3075,64 +3164,67 @@
       <c r="AA42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3152,8 +3244,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,68 +3324,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E45" s="3">
         <v>13100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>17600</v>
       </c>
       <c r="H45" s="3">
         <v>17600</v>
       </c>
       <c r="I45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J45" s="3">
         <v>5300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4300</v>
       </c>
       <c r="K45" s="3">
         <v>4300</v>
       </c>
       <c r="L45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M45" s="3">
         <v>3100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>2600</v>
       </c>
       <c r="R45" s="3">
         <v>2600</v>
       </c>
       <c r="S45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T45" s="3">
         <v>4500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3306,68 +3404,71 @@
       <c r="AA45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>182900</v>
+      </c>
+      <c r="E46" s="3">
         <v>153400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>161700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>192500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>220600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>218400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>176800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>202500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>175400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>73700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>94500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>112300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>131300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>154800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>184700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>135000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>157600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>84200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>66900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3383,13 +3484,16 @@
       <c r="AA46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3398,17 +3502,17 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>4600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>4000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3424,15 +3528,15 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3">
         <v>2000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>500</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3460,68 +3564,71 @@
       <c r="AA47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E48" s="3">
         <v>41000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>45100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>40500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>48500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>40300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>37700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3537,8 +3644,11 @@
       <c r="AA48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3724,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3804,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,31 +3884,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2700</v>
       </c>
       <c r="K52" s="3">
         <v>2700</v>
@@ -3807,31 +3926,31 @@
         <v>2700</v>
       </c>
       <c r="O52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P52" s="3">
         <v>2800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2700</v>
       </c>
       <c r="Q52" s="3">
         <v>2700</v>
       </c>
       <c r="R52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1500</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3845,8 +3964,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,68 +4044,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>240800</v>
+      </c>
+      <c r="E54" s="3">
         <v>205200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>214000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>243500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>224200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>246900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>221600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>122500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>145700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>163000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>184400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>208700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>228200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>175500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>189600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>113200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>96000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3999,8 +4124,11 @@
       <c r="AA54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4156,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,68 +4186,69 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2700</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4134,8 +4264,11 @@
       <c r="AA57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,68 +4344,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E59" s="3">
         <v>29400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>35700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>32900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>14900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>16200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4288,68 +4424,71 @@
       <c r="AA59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E60" s="3">
         <v>32300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>36300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>21400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>22000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>22900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5200</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4504,11 @@
       <c r="AA60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,7 +4516,7 @@
         <v>19300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4416,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>10500</v>
@@ -4425,7 +4567,7 @@
         <v>10500</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4442,68 +4584,71 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E62" s="3">
         <v>16800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>20200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>27000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>24000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>25800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1600</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4519,8 +4664,11 @@
       <c r="AA62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4744,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4824,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,68 +4904,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E66" s="3">
         <v>68400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>50600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>54300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>62000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>63300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>45400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>47600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>45800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>43300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17300</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4827,8 +4984,11 @@
       <c r="AA66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5016,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5094,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5174,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5064,14 +5231,14 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>177900</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>165900</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5254,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,68 +5334,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-521100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-489800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-459800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-430300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-401400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-371600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-343500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-318400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-326300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-299100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-273100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-247200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-221000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-193300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-165700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-144600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-126400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-109100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-90500</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5241,8 +5414,11 @@
       <c r="AA72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5494,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5574,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,68 +5654,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>170800</v>
+      </c>
+      <c r="E76" s="3">
         <v>136800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>163400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>189200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>216100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>178800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>199400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>166700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>72000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>96200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>115400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>134300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>156400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>182400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>132200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>149100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-105200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-87200</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5549,8 +5734,11 @@
       <c r="AA76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5814,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-25100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-25900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-27700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-21200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,19 +6011,20 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1600</v>
       </c>
       <c r="G83" s="3">
         <v>1600</v>
@@ -5841,7 +6039,7 @@
         <v>1600</v>
       </c>
       <c r="K83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L83" s="3">
         <v>1700</v>
@@ -5850,49 +6048,52 @@
         <v>1700</v>
       </c>
       <c r="N83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>1000</v>
       </c>
       <c r="U83" s="3">
         <v>1000</v>
       </c>
       <c r="V83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W83" s="3">
         <v>900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>800</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6169,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6249,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6329,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6409,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6489,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-30400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-26300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>10700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-22500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-19100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-13000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-15100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6601,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6759,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6839,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="E94" s="3">
         <v>3100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>22500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>7600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>41200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-89600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>11600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>23800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>14800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>34000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>21800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-91500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>15000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>11600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>7800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>6900</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6951,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7029,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7109,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7189,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,76 +7269,79 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E100" s="3">
         <v>19300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>56700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>125400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>69800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>90700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>11500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>92600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>3</v>
+      <c r="Y100" s="3">
+        <v>0</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
@@ -7104,8 +7349,11 @@
       <c r="AA100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7429,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>83000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-61600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>111800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-59500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>73200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>28400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-9300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>92800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,190 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>39700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>100</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="W8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>3</v>
+      <c r="Y8" s="3">
+        <v>0</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>3</v>
@@ -855,8 +859,11 @@
       <c r="AB8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E12" s="3">
         <v>29400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>18500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>15900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>12700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11900</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,157 +1418,161 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E17" s="3">
         <v>36200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>32900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>36200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>30800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>28000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>26500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>29200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>23400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>19100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>18700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>15500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>14700</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-28200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-25200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-27200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-22200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-19000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-18000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18600</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="3">
         <v>-13400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,8 +1582,11 @@
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,76 +1615,77 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1000</v>
       </c>
       <c r="S20" s="3">
         <v>1000</v>
       </c>
       <c r="T20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>3</v>
+      <c r="Y20" s="3">
+        <v>0</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>3</v>
@@ -1662,77 +1696,80 @@
       <c r="AB20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-31300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-27700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-26500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-23500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-25500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-24400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-26300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-26400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-20100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-17000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-16300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-17600</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" s="3">
         <v>-12500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,20 +1779,23 @@
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1771,8 +1811,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1822,88 +1862,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-31300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-30000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-25100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-26100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-25900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-21200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-18000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-15500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-13400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1982,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-28900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-27200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-18000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-13400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-28900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-25100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-27200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-26100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-25900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-21200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-13400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,76 +2609,79 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1000</v>
       </c>
       <c r="S32" s="3">
         <v>-1000</v>
       </c>
       <c r="T32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>3</v>
+      <c r="Y32" s="3">
+        <v>0</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>3</v>
@@ -2622,88 +2692,94 @@
       <c r="AB32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-31300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-28900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-25100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-27200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-26100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-25900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-21200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-18600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-13400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-31300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-28900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-25100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-27200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-26100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-25900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-21200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-18600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-13400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,71 +3093,72 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E41" s="3">
         <v>55500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>64900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>65700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>93300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>131400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>64100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>108500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>170100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>54900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>57400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>116900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>107700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>34600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>52200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>65900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37500</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3087,71 +3174,74 @@
       <c r="AB41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E42" s="3">
         <v>116400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>74900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>78900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>103000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>108300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>68300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>107100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>89500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>12900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>29300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>54000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>70400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>32500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>73500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>97600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>100900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>11500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>26900</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,67 +3257,70 @@
       <c r="AB42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3247,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3327,71 +3423,74 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
         <v>10300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>17600</v>
       </c>
       <c r="I45" s="3">
         <v>17600</v>
       </c>
       <c r="J45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K45" s="3">
         <v>5300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>4300</v>
       </c>
       <c r="L45" s="3">
         <v>4300</v>
       </c>
       <c r="M45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N45" s="3">
         <v>3100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>2600</v>
       </c>
       <c r="S45" s="3">
         <v>2600</v>
       </c>
       <c r="T45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U45" s="3">
         <v>4500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>2400</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3407,71 +3506,74 @@
       <c r="AB45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>154800</v>
+      </c>
+      <c r="E46" s="3">
         <v>182900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>153400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>161700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>192500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>220600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>218400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>176800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>202500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>175400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>73700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>94500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>112300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>131300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>154800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>184700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>135000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>157600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>84200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>66900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3487,17 +3589,20 @@
       <c r="AB46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
@@ -3505,17 +3610,17 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>4600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>4000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3531,15 +3636,15 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3">
         <v>2000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>500</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3567,71 +3672,74 @@
       <c r="AB47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E48" s="3">
         <v>38800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>41000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>45100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>40500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>48500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>40300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>37700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3755,11 @@
       <c r="AB48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3727,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,34 +4004,37 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E52" s="3">
         <v>15000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2700</v>
       </c>
       <c r="L52" s="3">
         <v>2700</v>
@@ -3929,31 +4049,31 @@
         <v>2700</v>
       </c>
       <c r="P52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2700</v>
       </c>
       <c r="R52" s="3">
         <v>2700</v>
       </c>
       <c r="S52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1500</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3967,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,71 +4170,74 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E54" s="3">
         <v>240800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>205200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>214000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>243500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>224200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>246900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>221600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>122500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>145700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>163000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>184400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>208700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>228200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>175500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>189600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>113200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>96000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4253,11 @@
       <c r="AB54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,71 +4317,72 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2700</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4267,8 +4398,11 @@
       <c r="AB57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4347,71 +4481,74 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E59" s="3">
         <v>26100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>28400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>15400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>14900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>16200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4427,71 +4564,74 @@
       <c r="AB59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E60" s="3">
         <v>34800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>32300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>34100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>36300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>22000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>22900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>18100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5200</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4507,19 +4647,22 @@
       <c r="AB60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19300</v>
+        <v>29600</v>
       </c>
       <c r="E61" s="3">
         <v>19300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4561,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>10500</v>
@@ -4570,7 +4713,7 @@
         <v>10500</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4587,71 +4730,74 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E62" s="3">
         <v>15800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>20200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>27000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>24000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>25800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>29200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>27700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1600</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4667,8 +4813,11 @@
       <c r="AB62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,71 +5062,74 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E66" s="3">
         <v>70000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>68400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>50600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>54300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>63300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>45400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>47600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>50000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>52300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>45800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>43300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>40400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17300</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4987,8 +5145,11 @@
       <c r="AB66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5234,14 +5402,14 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>177900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>165900</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5257,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,71 +5508,74 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-555100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-521100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-489800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-459800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-430300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-401400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-371600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-343500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-318400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-326300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-299100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-273100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-247200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-221000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-193300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-165700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-144600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-126400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-109100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-90500</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5417,8 +5591,11 @@
       <c r="AB72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,71 +5840,74 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>140900</v>
+      </c>
+      <c r="E76" s="3">
         <v>170800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>136800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>163400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>189200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>216100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>178800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>199400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>166700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>72000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>96200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>115400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>134300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>156400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>182400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>132200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>149100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-105200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-87200</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5737,8 +5923,11 @@
       <c r="AB76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AA80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-31300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-28900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-25100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-27200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-26100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-25900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-21200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-18600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-13400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6021,13 +6220,13 @@
         <v>1800</v>
       </c>
       <c r="E83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>1600</v>
       </c>
       <c r="H83" s="3">
         <v>1600</v>
@@ -6042,7 +6241,7 @@
         <v>1600</v>
       </c>
       <c r="L83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M83" s="3">
         <v>1700</v>
@@ -6051,49 +6250,52 @@
         <v>1700</v>
       </c>
       <c r="O83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P83" s="3">
         <v>1600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
-      </c>
-      <c r="U83" s="3">
-        <v>1000</v>
       </c>
       <c r="V83" s="3">
         <v>1000</v>
       </c>
       <c r="W83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X83" s="3">
         <v>900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>800</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-30400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-33500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>10700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-25000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-19100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-13000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-12000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-15100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-13000</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-46200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-46600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>41200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-89600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>23800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>14800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>34000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>21800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-91500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>15000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>11600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>7800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>6900</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,79 +7515,82 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E100" s="3">
         <v>64400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>19300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>56700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>125400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>69800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>90700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>11500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>92600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3" t="s">
-        <v>3</v>
+      <c r="Z100" s="3">
+        <v>0</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>3</v>
@@ -7352,8 +7598,11 @@
       <c r="AB100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>83000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-44400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-61600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>111800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>73200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>28400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-9300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>92800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6200</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,197 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>39700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
+      <c r="X8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>3</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>3</v>
@@ -862,8 +866,11 @@
       <c r="AC8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E12" s="3">
         <v>30500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>18500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>15900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>12700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>11900</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,163 +1445,167 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37700</v>
+      </c>
+      <c r="E17" s="3">
         <v>37300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>36200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>31800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>26500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>27900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>29200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>23400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>20300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>19100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>18700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>15500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>13400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>14700</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-34900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-28200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-25200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-27200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-28300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-28500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-22200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-19000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-18000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-18600</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1615,11 @@
       <c r="AC18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,79 +1649,80 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1000</v>
       </c>
       <c r="T20" s="3">
         <v>1000</v>
       </c>
       <c r="U20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>3</v>
+      <c r="Z20" s="3">
+        <v>0</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>3</v>
@@ -1699,80 +1733,83 @@
       <c r="AC20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-31300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-27700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-27300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-28200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-26500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-23500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-25500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-24400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-26300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-26400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-20100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-17000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-16300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-17600</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1782,23 +1819,26 @@
       <c r="AC21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1814,8 +1854,8 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1865,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-30000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-29800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-25100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-27200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-26100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-25900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-27700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-21200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-18000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-18600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-15500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-28900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-29800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-28100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-27200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-26100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-25900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-27700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-21200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-18000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-17300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-18600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-15500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-28900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-29800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-28100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-25100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-27200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-26100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-25900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-27700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-21200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-18000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-17300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-18600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-15500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,79 +2679,82 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-1000</v>
       </c>
       <c r="T32" s="3">
         <v>-1000</v>
       </c>
       <c r="U32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>3</v>
+      <c r="Z32" s="3">
+        <v>0</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>3</v>
@@ -2695,91 +2765,97 @@
       <c r="AC32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-29800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-28100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-25100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-27200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-26100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-25900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-27700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-27500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-21200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-18000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-17300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-18600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-15500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-29800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-28100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-25100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-27200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-26100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-25900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-27700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-27500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-21200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-18000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-17300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-18600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-15500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,74 +3180,75 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E41" s="3">
         <v>47100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>55500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>64900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>65700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>93300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>131400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>64100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>108500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>170100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>57400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>116900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>107700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>34600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>65900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>37500</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3177,74 +3264,77 @@
       <c r="AC41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E42" s="3">
         <v>98700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>116400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>74900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>78900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>103000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>108300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>68300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>107100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>89500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>12900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>29300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>54000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>70400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>32500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>73500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>97600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>100900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>11500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>26900</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3260,70 +3350,73 @@
       <c r="AC42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
+      <c r="M43" s="3">
+        <v>200</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,74 +3522,77 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E45" s="3">
         <v>8400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>17600</v>
       </c>
       <c r="J45" s="3">
         <v>17600</v>
       </c>
       <c r="K45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="L45" s="3">
         <v>5300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>4300</v>
       </c>
       <c r="M45" s="3">
         <v>4300</v>
       </c>
       <c r="N45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O45" s="3">
         <v>3100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5100</v>
-      </c>
-      <c r="S45" s="3">
-        <v>2600</v>
       </c>
       <c r="T45" s="3">
         <v>2600</v>
       </c>
       <c r="U45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V45" s="3">
         <v>4500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>2400</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3509,74 +3608,77 @@
       <c r="AC45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122400</v>
+      </c>
+      <c r="E46" s="3">
         <v>154800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>182900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>153400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>161700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>192500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>220600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>218400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>176800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>202500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>175400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>73700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>94500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>112300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>131300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>154800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>184700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>135000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>157600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>84200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>66900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3601,11 +3706,11 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
@@ -3613,17 +3718,17 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>4600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>4000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3639,15 +3744,15 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3">
         <v>2000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>500</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3675,74 +3780,77 @@
       <c r="AC47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>92400</v>
+      </c>
+      <c r="E48" s="3">
         <v>36000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>38800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>41000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>44100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>45100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>40500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>48500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>40300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>37700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,37 +4124,40 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>19200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>10800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>8400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2700</v>
       </c>
       <c r="M52" s="3">
         <v>2700</v>
@@ -4052,31 +4172,31 @@
         <v>2700</v>
       </c>
       <c r="Q52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R52" s="3">
         <v>2800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2700</v>
       </c>
       <c r="S52" s="3">
         <v>2700</v>
       </c>
       <c r="T52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U52" s="3">
         <v>2800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1500</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,74 +4296,77 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>222600</v>
+      </c>
+      <c r="E54" s="3">
         <v>210000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>240800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>205200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>214000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>243500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>224200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>246900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>221600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>122500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>145700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>163000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>184400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>208700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>228200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>175500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>189600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>113200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>96000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4256,8 +4382,11 @@
       <c r="AC54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,74 +4448,75 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>6000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>9600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2700</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4401,8 +4532,11 @@
       <c r="AC57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,74 +4618,77 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E59" s="3">
         <v>18700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>29400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>28400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>35700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>15400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>18700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>14900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>14900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>16200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4567,74 +4704,77 @@
       <c r="AC59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E60" s="3">
         <v>24700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>34800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>32300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>34100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>36300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>22000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>18400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>22900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>18100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>15100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5200</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4650,22 +4790,25 @@
       <c r="AC60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E61" s="3">
         <v>29600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>19300</v>
       </c>
       <c r="F61" s="3">
         <v>19300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4707,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>10500</v>
@@ -4716,7 +4859,7 @@
         <v>10500</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -4733,74 +4876,77 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E62" s="3">
         <v>14800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>20200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>27000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>25800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>28500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>29200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>29400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>27700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>29200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1600</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,74 +5220,77 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E66" s="3">
         <v>69100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>70000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>68400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>50600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>54300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>63300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>45400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>47600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>50500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>50000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>52300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>45800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>43300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>40400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>40500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17300</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5148,8 +5306,11 @@
       <c r="AC66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5405,14 +5573,14 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>177900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>165900</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,74 +5682,77 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-590300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-555100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-521100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-489800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-459800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-430300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-401400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-371600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-343500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-318400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-326300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-299100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-273100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-247200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-221000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-193300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-165700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-144600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-126400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-109100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-90500</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,74 +6026,77 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>109600</v>
+      </c>
+      <c r="E76" s="3">
         <v>140900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>170800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>136800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>163400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>189200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>216100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>208000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>178800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>199400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>166700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>72000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>96200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>115400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>134300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>156400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>182400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>132200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>149100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-105200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-87200</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AB80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-29800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-28100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-25100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-27200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-26100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-25900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-26200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-27700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-27500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-21200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-18000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-17300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-18600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-15500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,25 +6409,26 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
         <v>1800</v>
       </c>
       <c r="F83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G83" s="3">
         <v>1700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>1600</v>
       </c>
       <c r="I83" s="3">
         <v>1600</v>
@@ -6244,7 +6443,7 @@
         <v>1600</v>
       </c>
       <c r="M83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="N83" s="3">
         <v>1700</v>
@@ -6253,49 +6452,52 @@
         <v>1700</v>
       </c>
       <c r="P83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>1000</v>
       </c>
       <c r="W83" s="3">
         <v>1000</v>
       </c>
       <c r="X83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y83" s="3">
         <v>900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>800</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-30400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-25800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-33500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>10700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-22500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-25000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-18400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-19100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-13000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-12000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-15100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-13000</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E94" s="3">
         <v>21200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-46200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>41200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>15700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>23800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>14800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>34000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>21800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-91500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>15000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>11600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>7800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>6900</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,82 +7761,85 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>8600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>64400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>19300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>56700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>125400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>69800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>90700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>11500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>92600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA100" s="3" t="s">
-        <v>3</v>
+      <c r="AA100" s="3">
+        <v>0</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>3</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-37500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>83000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-61600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>111800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-59500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>73200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>28400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-9300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>92800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6200</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRTS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="92">
   <si>
     <t>GRTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,204 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>39700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+      <c r="Y8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>3</v>
+      <c r="AA8" s="3">
+        <v>0</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>3</v>
@@ -869,8 +873,11 @@
       <c r="AD8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E12" s="3">
         <v>31000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>18500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>15900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>15300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>15600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>12700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>11900</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,169 +1472,173 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E17" s="3">
         <v>37700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>36200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>31800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>28500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>27100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>26500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>27900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>29200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>29500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>23400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>20300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>19100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>15500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>13400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>14700</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-35700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-34900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-29900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-29600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-29000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-29700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-28200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-25200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-26200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-28300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-28500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-22200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-19000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-18000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-18600</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1648,11 @@
       <c r="AD18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,82 +1683,83 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1000</v>
       </c>
       <c r="U20" s="3">
         <v>1000</v>
       </c>
       <c r="V20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>3</v>
+      <c r="AA20" s="3">
+        <v>0</v>
       </c>
       <c r="AB20" s="3" t="s">
         <v>3</v>
@@ -1736,83 +1770,86 @@
       <c r="AD20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-32400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-31300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-27700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-28000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-27300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-23500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-25500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-24400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-24600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-26300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-26400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-20100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-17000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-16300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-17600</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,17 +1871,17 @@
         <v>1000</v>
       </c>
       <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1857,8 +1897,8 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-29500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-29800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-25100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-27200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-26100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-26200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-27700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-27500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-21200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-18000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-18600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-29500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-28900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-29800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-28100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-27200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-26100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-26200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-27700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-27500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-21200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-18000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-17300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-18600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-29500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-28900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-29800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-28100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-25100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-27200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-26100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-26200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-27700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-27500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-21200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-18000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-17300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-18600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,82 +2749,85 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-1000</v>
       </c>
       <c r="U32" s="3">
         <v>-1000</v>
       </c>
       <c r="V32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>3</v>
+      <c r="AA32" s="3">
+        <v>0</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>3</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-29500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-28900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-29800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-28100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-25100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-27200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-26100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-26200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-27700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-27500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-21200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-18000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-17300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-18600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-29500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-28900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-29800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-28100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-25100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-27200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-26100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-26200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-27700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-27500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-21200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-18000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-17300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-18600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,77 +3267,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E41" s="3">
         <v>41400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>47100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>55500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>65700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>93300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>131400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>64100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>108500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>170100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>116900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>107700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>34600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>52200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>65900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>37500</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
@@ -3267,77 +3354,80 @@
       <c r="AD41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E42" s="3">
         <v>73100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>98700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>116400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>74900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>78900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>103000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>108300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>68300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>107100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>89500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>12900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>29300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>54000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>70400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>32500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>73500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>97600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>100900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>11500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>26900</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>3</v>
       </c>
@@ -3353,73 +3443,76 @@
       <c r="AD42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,77 +3621,80 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E45" s="3">
         <v>7400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>17600</v>
       </c>
       <c r="K45" s="3">
         <v>17600</v>
       </c>
       <c r="L45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="M45" s="3">
         <v>5300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>4300</v>
       </c>
       <c r="N45" s="3">
         <v>4300</v>
       </c>
       <c r="O45" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P45" s="3">
         <v>3100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5100</v>
-      </c>
-      <c r="T45" s="3">
-        <v>2600</v>
       </c>
       <c r="U45" s="3">
         <v>2600</v>
       </c>
       <c r="V45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W45" s="3">
         <v>4500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>6700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>2400</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3611,77 +3710,80 @@
       <c r="AD45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90800</v>
+      </c>
+      <c r="E46" s="3">
         <v>122400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>154800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>182900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>153400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>161700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>192500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>220600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>218400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>176800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>202500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>175400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>73700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>94500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>112300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>131300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>154800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>184700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>135000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>157600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>84200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>66900</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3709,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
@@ -3721,17 +3826,17 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>4600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
         <v>4000</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3747,15 +3852,15 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3">
         <v>2000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>500</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>3</v>
       </c>
@@ -3783,77 +3888,80 @@
       <c r="AD47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>89900</v>
+      </c>
+      <c r="E48" s="3">
         <v>92400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>38800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>41000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>44100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>40500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>48500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>48000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>40300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>37700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27500</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,40 +4244,43 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>10800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>8400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2700</v>
       </c>
       <c r="N52" s="3">
         <v>2700</v>
@@ -4175,31 +4295,31 @@
         <v>2700</v>
       </c>
       <c r="R52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S52" s="3">
         <v>2800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>2700</v>
       </c>
       <c r="T52" s="3">
         <v>2700</v>
       </c>
       <c r="U52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V52" s="3">
         <v>2800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1500</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,77 +4422,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>187200</v>
+      </c>
+      <c r="E54" s="3">
         <v>222600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>210000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>240800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>205200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>214000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>243500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>278100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>224200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>246900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>221600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>122500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>145700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>163000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>184400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>208700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>228200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>175500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>189600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>113200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>96000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,77 +4579,78 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>9600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2700</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,77 +4755,80 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E59" s="3">
         <v>17200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>28400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>35700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>32900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>15400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>18700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>14900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>14900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>16200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,77 +4844,80 @@
       <c r="AD59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E60" s="3">
         <v>22100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>34800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>32300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>32400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>34100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>36300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>21400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>21800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>22000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>22900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>18100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5200</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4793,25 +4933,28 @@
       <c r="AD60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E61" s="3">
         <v>29700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>29600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>19300</v>
       </c>
       <c r="G61" s="3">
         <v>19300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>19300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -4853,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
-        <v>10500</v>
+        <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>10500</v>
@@ -4862,7 +5005,7 @@
         <v>10500</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
@@ -4879,77 +5022,80 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E62" s="3">
         <v>61200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>20200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>27000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>25800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>28500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>29200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>30500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>29400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>29200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1600</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,77 +5378,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E66" s="3">
         <v>113100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>69100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>70000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>68400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>50600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>54300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>63300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>45400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>50500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>52300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>45800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>43300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>40400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>40500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17300</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5576,14 +5744,14 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>177900</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>165900</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,77 +5856,80 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-628700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-590300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-555100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-521100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-489800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-459800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-430300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-401400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-371600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-343500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-318400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-326300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-299100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-273100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-247200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-221000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-193300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-165700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-144600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-126400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-109100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-90500</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,77 +6212,80 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E76" s="3">
         <v>109600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>170800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>136800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>163400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>189200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>216100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>208000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>178800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>199400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>166700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>72000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>96200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>115400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>134300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>156400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>182400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>132200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>149100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-105200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-87200</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="AC80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="AD80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-29500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-28900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-29800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-28100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-25100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-27200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-26100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-26200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-27700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-27500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-21200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-18000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-17300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-18600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-13400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-14600</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,28 +6608,29 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>1800</v>
       </c>
       <c r="F83" s="3">
         <v>1800</v>
       </c>
       <c r="G83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H83" s="3">
         <v>1700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>1600</v>
       </c>
       <c r="J83" s="3">
         <v>1600</v>
@@ -6446,7 +6645,7 @@
         <v>1600</v>
       </c>
       <c r="N83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="O83" s="3">
         <v>1700</v>
@@ -6455,49 +6654,52 @@
         <v>1700</v>
       </c>
       <c r="Q83" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R83" s="3">
         <v>1600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1100</v>
-      </c>
-      <c r="W83" s="3">
-        <v>1000</v>
       </c>
       <c r="X83" s="3">
         <v>1000</v>
       </c>
       <c r="Y83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z83" s="3">
         <v>900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>800</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-31000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-30400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-25800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-33500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>10700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-22500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-25000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-18400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-19100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-13000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-15100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-13000</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E94" s="3">
         <v>24600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>21200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>22500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>7600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>41200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>15700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>23800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>14800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>34000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>21800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-91500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>15000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>11600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>5800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>7800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>6900</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,85 +8007,88 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>64400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>19300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>56700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>17400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>125400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>69800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>90700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>11500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>92600</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="3" t="s">
-        <v>3</v>
+      <c r="AB100" s="3">
+        <v>0</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>3</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-37500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>83000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-44400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-61600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>111800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-4400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-59500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>73200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-17600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>28400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>7800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-9300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>92800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6200</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="AC102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AD102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
